--- a/Validation/WorkOrder/WorkOrders Required Field Transform Validation Report - Template.xlsx
+++ b/Validation/WorkOrder/WorkOrders Required Field Transform Validation Report - Template.xlsx
@@ -8,6 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Reqd Field Validation" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasks" sheetId="2" r:id="rId2"/>
+    <sheet name="Labor" sheetId="3" r:id="rId3"/>
+    <sheet name="Parts" sheetId="4" r:id="rId4"/>
+    <sheet name="Commercial" sheetId="5" r:id="rId5"/>
+    <sheet name="StandardJobs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>EquipmentID</t>
   </si>
@@ -97,6 +102,63 @@
   </si>
   <si>
     <t>Commercial</t>
+  </si>
+  <si>
+    <t>TaskID</t>
+  </si>
+  <si>
+    <t>WorkAccomplishedCode</t>
+  </si>
+  <si>
+    <t>UpdatePMSchedule</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>LaborDt</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>LaborHours</t>
+  </si>
+  <si>
+    <t>TimeCode</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>NotFromInventory</t>
+  </si>
+  <si>
+    <t>PartID</t>
+  </si>
+  <si>
+    <t>PartSuffix</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>PartKeywordShortDescription</t>
+  </si>
+  <si>
+    <t>Dt</t>
+  </si>
+  <si>
+    <t>VendorID</t>
+  </si>
+  <si>
+    <t>LaborCost</t>
+  </si>
+  <si>
+    <t>StandardJobID</t>
   </si>
 </sst>
 </file>
@@ -431,17 +493,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="17" width="15.7109375" customWidth="1"/>
+    <col min="13" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
     <col min="18" max="19" width="18.42578125" customWidth="1"/>
     <col min="20" max="23" width="18.28515625" customWidth="1"/>
     <col min="24" max="26" width="25.7109375" customWidth="1"/>
@@ -531,4 +597,248 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>